--- a/hourly datasets/cap_gen_year13final.xlsx
+++ b/hourly datasets/cap_gen_year13final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1153550720602763</v>
+        <v>0.1109147345275241</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001073715979604406</v>
+        <v>0.002061796782885081</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003471523711617924</v>
+        <v>0.0006923936350661209</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8304225355238194</v>
+        <v>2.28913676724894</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1436180676061913</v>
+        <v>0.06016899262800328</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.00573048260828517</v>
+        <v>0.0007047259515636421</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007877914567493984</v>
+        <v>0.00341886761420652</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1164287880398807</v>
+        <v>0.1129765313104092</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.002296764469420421</v>
+        <v>0.0004288578945119837</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005309762395276463</v>
+        <v>0.0009981273467019271</v>
       </c>
       <c r="D4" t="n">
-        <v>1.200574246873985</v>
+        <v>1.639398526520174</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1836618353599151</v>
+        <v>0.08129291504410587</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.008110369839341183</v>
+        <v>-0.001527441708457478</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01270389877818202</v>
+        <v>0.002385157497481446</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1176518365296968</v>
+        <v>0.1113435924220361</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00442952969840794</v>
+        <v>0.02224702472743489</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006182059886694912</v>
+        <v>0.003928975824036999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.673576617965862</v>
+        <v>5.091089934411566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1784389627518892</v>
+        <v>0.04844595274472712</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.007687345167670704</v>
+        <v>0.01454635048448911</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01654640456448659</v>
+        <v>0.02994769897038067</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1197846017586843</v>
+        <v>0.133161759254959</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002676081463800947</v>
+        <v>0.01550049447432168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.002846610253943047</v>
+        <v>0.006603519916476828</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6687568752169742</v>
+        <v>6.613257087939925</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0632399631764482</v>
+        <v>0.1355636480815599</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002903264760753099</v>
+        <v>0.002557796028374666</v>
       </c>
       <c r="G6" t="n">
-        <v>0.008255427688354994</v>
+        <v>0.02844319292026869</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1180311535240773</v>
+        <v>0.1264152290018458</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00471697191988936</v>
+        <v>0.02508655528055806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002241762195855901</v>
+        <v>0.005709609063111239</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6498977204142745</v>
+        <v>6.890870899734624</v>
       </c>
       <c r="E7" t="n">
-        <v>0.03430407482837538</v>
+        <v>0.07205358822139642</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0003231231670003119</v>
+        <v>0.01389589601529266</v>
       </c>
       <c r="G7" t="n">
-        <v>0.009110820672778408</v>
+        <v>0.03627721454582346</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1200720439801657</v>
+        <v>0.1360012898080822</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.00431037260513322</v>
+        <v>0.01691171928631399</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002708436331468512</v>
+        <v>0.008825572006274353</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8359503835827694</v>
+        <v>6.844449111714582</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04074715987533925</v>
+        <v>0.1168767684636228</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0009981528879478884</v>
+        <v>-0.0003861329004427298</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00961889809821433</v>
+        <v>0.0342095714730707</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1196654446654096</v>
+        <v>0.1278264538138381</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.003651778353868883</v>
+        <v>0.01545441223886367</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001276900792902914</v>
+        <v>0.002842437910191499</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5297245596983742</v>
+        <v>4.598389719285207</v>
       </c>
       <c r="E9" t="n">
-        <v>0.03170609314784304</v>
+        <v>0.01974116768346192</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001149057387407572</v>
+        <v>0.009883318098916299</v>
       </c>
       <c r="G9" t="n">
-        <v>0.006154499320330195</v>
+        <v>0.02102550637881104</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1190068504141452</v>
+        <v>0.1263691467663878</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1153550720602763</v>
+        <v>-0.1109147345275241</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001391966103680363</v>
+        <v>0.0004907700664111282</v>
       </c>
       <c r="D10" t="n">
-        <v>-110.6197488264519</v>
+        <v>-243.0686224809186</v>
       </c>
       <c r="E10" t="n">
-        <v>1.528210825595912e-16</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1180833292444012</v>
+        <v>-0.1118766292132336</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1126268148761515</v>
+        <v>-0.1099528398418148</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05375552718022401</v>
+        <v>-0.05151183576308301</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001496546355030394</v>
+        <v>0.0005271456709303496</v>
       </c>
       <c r="D11" t="n">
-        <v>-43.58976635227019</v>
+        <v>-102.4067691391369</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0006874756492560112</v>
+        <v>4.890783141614664e-301</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05668876143732098</v>
+        <v>-0.05254502555654916</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05082229292312706</v>
+        <v>-0.05047864596961684</v>
       </c>
       <c r="H11" t="n">
-        <v>0.06159954488005233</v>
+        <v>0.05940289876444112</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04200405282003758</v>
+        <v>-0.04070300546962106</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001461322586014106</v>
+        <v>0.0005172025452729692</v>
       </c>
       <c r="D12" t="n">
-        <v>-34.78822263352627</v>
+        <v>-82.41114246798146</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00788739727491126</v>
+        <v>6.184804087975107e-125</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04486824851554837</v>
+        <v>-0.04171670703042119</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03913985712452674</v>
+        <v>-0.03968930390882093</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07335101924023876</v>
+        <v>0.07021172905790307</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03769758034215254</v>
+        <v>-0.03573981854759804</v>
       </c>
       <c r="C13" t="n">
-        <v>0.001460393040624764</v>
+        <v>0.0005196554796739367</v>
       </c>
       <c r="D13" t="n">
-        <v>-30.97507994630622</v>
+        <v>-72.92450507751541</v>
       </c>
       <c r="E13" t="n">
-        <v>0.005199611251656594</v>
+        <v>1.010338322616787e-99</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04055995434902093</v>
+        <v>-0.03675832780057446</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03483520633528417</v>
+        <v>-0.03472130929462162</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07765749171812381</v>
+        <v>0.07517491597992609</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0302951508494773</v>
+        <v>-0.02780709147519184</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001440753738609094</v>
+        <v>0.0005098288184839115</v>
       </c>
       <c r="D14" t="n">
-        <v>-26.37067967510978</v>
+        <v>-60.2636319641008</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04808434829849379</v>
+        <v>1.034115542177344e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03311903233875631</v>
+        <v>-0.02880634075852241</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0274712693601983</v>
+        <v>-0.02680784219186126</v>
       </c>
       <c r="H14" t="n">
-        <v>0.08505992121079904</v>
+        <v>0.0831076430523323</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02651073243585126</v>
+        <v>-0.02481592442639032</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001414586384494973</v>
+        <v>0.0005000598253894392</v>
       </c>
       <c r="D15" t="n">
-        <v>-23.18279294008026</v>
+        <v>-52.83188283137685</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01701194019935149</v>
+        <v>1.320209750773341e-12</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02928332601600661</v>
+        <v>-0.02579602677606542</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02373813885569588</v>
+        <v>-0.02383582207671523</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08884433962442509</v>
+        <v>0.08609881010113382</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02518654249639881</v>
+        <v>-0.02377623611530444</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001403678450425305</v>
+        <v>0.0004898481686764925</v>
       </c>
       <c r="D16" t="n">
-        <v>-22.31086600317695</v>
+        <v>-51.89898263171936</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0307054674120775</v>
+        <v>4.628025730483905e-31</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02793775686649426</v>
+        <v>-0.02473632392678989</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02243532812630338</v>
+        <v>-0.02281614830381897</v>
       </c>
       <c r="H16" t="n">
-        <v>0.09016852956387753</v>
+        <v>0.0871384984122197</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0245181993761787</v>
+        <v>-0.02264128695309985</v>
       </c>
       <c r="C17" t="n">
-        <v>0.001427697294904196</v>
+        <v>0.0004973486588568179</v>
       </c>
       <c r="D17" t="n">
-        <v>-21.24102813152773</v>
+        <v>-48.50081106521007</v>
       </c>
       <c r="E17" t="n">
-        <v>0.02019962919927444</v>
+        <v>2.060226977987196e-34</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02731649061684466</v>
+        <v>-0.02361607549584004</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02171990813551275</v>
+        <v>-0.02166649841035966</v>
       </c>
       <c r="H17" t="n">
-        <v>0.09083687268409764</v>
+        <v>0.08827344757442429</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02258387530553652</v>
+        <v>-0.02123559719102644</v>
       </c>
       <c r="C18" t="n">
-        <v>0.001449404980521501</v>
+        <v>0.0005070189519464856</v>
       </c>
       <c r="D18" t="n">
-        <v>-19.08256365117191</v>
+        <v>-44.64304003338101</v>
       </c>
       <c r="E18" t="n">
-        <v>0.02903077826937162</v>
+        <v>4.02497680786635e-22</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02542471347834435</v>
+        <v>-0.02222933921539893</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0197430371327287</v>
+        <v>-0.02024185516665394</v>
       </c>
       <c r="H18" t="n">
-        <v>0.09277119675473983</v>
+        <v>0.0896791373364977</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01792461799789015</v>
+        <v>-0.01695743989644027</v>
       </c>
       <c r="C19" t="n">
-        <v>0.001456611323288592</v>
+        <v>0.0004986057321718066</v>
       </c>
       <c r="D19" t="n">
-        <v>-15.00463038446596</v>
+        <v>-36.3527357653358</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03994048737531728</v>
+        <v>4.313589997361879e-09</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.02077958063053275</v>
+        <v>-0.01793469226692706</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01506965536524755</v>
+        <v>-0.01598018752595349</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09743045406238619</v>
+        <v>0.09395729463108388</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01383870683959879</v>
+        <v>-0.01292675520100577</v>
       </c>
       <c r="C20" t="n">
-        <v>0.001487826494249726</v>
+        <v>0.0005067936721697522</v>
       </c>
       <c r="D20" t="n">
-        <v>-11.04519060652265</v>
+        <v>-27.44132399370104</v>
       </c>
       <c r="E20" t="n">
-        <v>0.07892623679556407</v>
+        <v>0.03331117458718316</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01675485148948615</v>
+        <v>-0.01392005567560739</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01092256218971143</v>
+        <v>-0.01193345472640414</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1015163652206776</v>
+        <v>0.09798797932651837</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01042991254394187</v>
+        <v>-0.0106228459926085</v>
       </c>
       <c r="C21" t="n">
-        <v>0.001493506121705815</v>
+        <v>0.0005109120952230057</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.702276410082943</v>
+        <v>-21.70500613099954</v>
       </c>
       <c r="E21" t="n">
-        <v>0.04955143331958388</v>
+        <v>2.736152663501203e-09</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01335718883466776</v>
+        <v>-0.01162421844670445</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.007502636253215989</v>
+        <v>-0.009621473538512552</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1049251595163345</v>
+        <v>0.1002918885349156</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006242517095935334</v>
+        <v>-0.007480541992183292</v>
       </c>
       <c r="C22" t="n">
-        <v>0.001489915478460268</v>
+        <v>0.0005031251240082664</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.564020304791404</v>
+        <v>-15.35562397914606</v>
       </c>
       <c r="E22" t="n">
-        <v>0.09438368445610194</v>
+        <v>0.00675990297886087</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.009162755514768323</v>
+        <v>-0.008466652218249056</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00332227867710234</v>
+        <v>-0.00649443176611753</v>
       </c>
       <c r="H22" t="n">
-        <v>0.109112554964341</v>
+        <v>0.1034341925353408</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.003794603463120388</v>
+        <v>-0.005283580164107812</v>
       </c>
       <c r="C23" t="n">
-        <v>0.001481276581613187</v>
+        <v>0.0004959307591132765</v>
       </c>
       <c r="D23" t="n">
-        <v>-2.984909997296542</v>
+        <v>-11.11601293339997</v>
       </c>
       <c r="E23" t="n">
-        <v>0.07579264565897481</v>
+        <v>0.04416802019369261</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006697909351583088</v>
+        <v>-0.006255589643376298</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.0008912975746576888</v>
+        <v>-0.004311570684839328</v>
       </c>
       <c r="H23" t="n">
-        <v>0.111560468597156</v>
+        <v>0.1056311543634163</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.002014798575188101</v>
+        <v>-0.005330799926753777</v>
       </c>
       <c r="C24" t="n">
-        <v>0.001526284299998745</v>
+        <v>0.0004946756683781576</v>
       </c>
       <c r="D24" t="n">
-        <v>-3.752576448767489</v>
+        <v>-11.40459731046179</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0714819352170195</v>
+        <v>0.003420048106192842</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.005006319595186008</v>
+        <v>-0.006300349461440948</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0009767224448098057</v>
+        <v>-0.004361250392066607</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1133402734850882</v>
+        <v>0.1055839346007704</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-8.092906681630374e-06</v>
+        <v>-0.002337214783338214</v>
       </c>
       <c r="C25" t="n">
-        <v>0.001598977041614359</v>
+        <v>0.0004853615071836416</v>
       </c>
       <c r="D25" t="n">
-        <v>-1.979748803035526</v>
+        <v>-4.97355043593499</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1162815263175829</v>
+        <v>0.01057585330447364</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003142090672081482</v>
+        <v>-0.003288508837386392</v>
       </c>
       <c r="G25" t="n">
-        <v>0.003125904858718223</v>
+        <v>-0.001385920729290036</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1153469791535947</v>
+        <v>0.1085775197441859</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006270490629981494</v>
+        <v>0.01984168955363529</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0007632856471364838</v>
+        <v>0.001521181626464528</v>
       </c>
       <c r="D26" t="n">
-        <v>3.876503287692662</v>
+        <v>10.27355882357669</v>
       </c>
       <c r="E26" t="n">
-        <v>0.03788018451724643</v>
+        <v>0.102301879030119</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004774455483878912</v>
+        <v>0.01686021953100485</v>
       </c>
       <c r="G26" t="n">
-        <v>0.007766525776084076</v>
+        <v>0.02282315957626573</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1216255626902578</v>
+        <v>0.1307564240811594</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year13final.xlsx
+++ b/hourly datasets/cap_gen_year13final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1109147345275241</v>
+        <v>0.1081513715637685</v>
       </c>
     </row>
     <row r="3">
@@ -500,25 +500,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.002061796782885081</v>
+        <v>0.003443587200751957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0006923936350661209</v>
+        <v>0.0007256656727760803</v>
       </c>
       <c r="D3" t="n">
-        <v>2.28913676724894</v>
+        <v>3.117892864933979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.06016899262800328</v>
+        <v>0.05649826820455632</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0007047259515636421</v>
+        <v>0.002021303964238181</v>
       </c>
       <c r="G3" t="n">
-        <v>0.00341886761420652</v>
+        <v>0.004865870437265733</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1129765313104092</v>
+        <v>0.1115949587645204</v>
       </c>
     </row>
     <row r="4">
@@ -528,25 +528,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0004288578945119837</v>
+        <v>-0.0008216781712412432</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009981273467019271</v>
+        <v>0.0009410904562421455</v>
       </c>
       <c r="D4" t="n">
-        <v>1.639398526520174</v>
+        <v>1.032599492705951</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08129291504410587</v>
+        <v>0.02543248610369423</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.001527441708457478</v>
+        <v>-0.002666187467030926</v>
       </c>
       <c r="G4" t="n">
-        <v>0.002385157497481446</v>
+        <v>0.001022831124548438</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1113435924220361</v>
+        <v>0.1073296933925272</v>
       </c>
     </row>
     <row r="5">
@@ -556,25 +556,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02224702472743489</v>
+        <v>0.005985576799996248</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003928975824036999</v>
+        <v>0.003629238004883483</v>
       </c>
       <c r="D5" t="n">
-        <v>5.091089934411566</v>
+        <v>2.221162925616692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04844595274472712</v>
+        <v>0.1112325392698636</v>
       </c>
       <c r="F5" t="n">
-        <v>0.01454635048448911</v>
+        <v>-0.001127621572567147</v>
       </c>
       <c r="G5" t="n">
-        <v>0.02994769897038067</v>
+        <v>0.01309877517255964</v>
       </c>
       <c r="H5" t="n">
-        <v>0.133161759254959</v>
+        <v>0.1141369483637647</v>
       </c>
     </row>
     <row r="6">
@@ -584,25 +584,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.01550049447432168</v>
+        <v>0.00935433473977274</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006603519916476828</v>
+        <v>0.003339888515238433</v>
       </c>
       <c r="D6" t="n">
-        <v>6.613257087939925</v>
+        <v>3.640666896584873</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1355636480815599</v>
+        <v>0.119382056661647</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002557796028374666</v>
+        <v>0.002808250200541855</v>
       </c>
       <c r="G6" t="n">
-        <v>0.02844319292026869</v>
+        <v>0.01590041927900363</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1264152290018458</v>
+        <v>0.1175057063035412</v>
       </c>
     </row>
     <row r="7">
@@ -612,25 +612,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02508655528055806</v>
+        <v>0.008500198852210917</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005709609063111239</v>
+        <v>0.004313821062094309</v>
       </c>
       <c r="D7" t="n">
-        <v>6.890870899734624</v>
+        <v>3.879579226923198</v>
       </c>
       <c r="E7" t="n">
-        <v>0.07205358822139642</v>
+        <v>1.599642343436988</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01389589601529266</v>
+        <v>0.002060267225556201</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03627721454582346</v>
+        <v>0.01142713632889178</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1360012898080822</v>
+        <v>0.1166515704159794</v>
       </c>
     </row>
     <row r="8">
@@ -640,25 +640,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01691171928631399</v>
+        <v>0.007303178936666192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008825572006274353</v>
+        <v>0.008077526084819825</v>
       </c>
       <c r="D8" t="n">
-        <v>6.844449111714582</v>
+        <v>3.76367918386245</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1168767684636228</v>
+        <v>0.04197480904354212</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0003861329004427298</v>
+        <v>0.04276610119124324</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0342095714730707</v>
+        <v>0.0197388778699944</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1278264538138381</v>
+        <v>0.1154545505004347</v>
       </c>
     </row>
     <row r="9">
@@ -668,25 +668,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01545441223886367</v>
+        <v>0.00239300486158107</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002842437910191499</v>
+        <v>0.003644069052185047</v>
       </c>
       <c r="D9" t="n">
-        <v>4.598389719285207</v>
+        <v>1.15184079922951</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01974116768346192</v>
+        <v>-0.005844101819434978</v>
       </c>
       <c r="F9" t="n">
-        <v>0.009883318098916299</v>
+        <v>0.007592098760838563</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02102550637881104</v>
+        <v>0.01025170463195939</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1263691467663878</v>
+        <v>0.1105443764253495</v>
       </c>
     </row>
     <row r="10">
@@ -696,22 +696,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1109147345275241</v>
+        <v>-0.1081513715637685</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004907700664111282</v>
+        <v>0.0004891924047582525</v>
       </c>
       <c r="D10" t="n">
-        <v>-243.0686224809186</v>
+        <v>-238.3459281824309</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1118766292132336</v>
+        <v>-0.1091101741635475</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1099528398418148</v>
+        <v>-0.1071925689639894</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -724,25 +724,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05151183576308301</v>
+        <v>-0.05063352504493621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0005271456709303496</v>
+        <v>0.0005296035887379542</v>
       </c>
       <c r="D11" t="n">
-        <v>-102.4067691391369</v>
+        <v>-101.8953694280083</v>
       </c>
       <c r="E11" t="n">
-        <v>4.890783141614664e-301</v>
+        <v>1.163431151683467e-272</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.05254502555654916</v>
+        <v>-0.05167153239627991</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05047864596961684</v>
+        <v>-0.04959551769359249</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05940289876444112</v>
+        <v>0.05751784651883225</v>
       </c>
     </row>
     <row r="12">
@@ -752,25 +752,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.04070300546962106</v>
+        <v>-0.03908237904973499</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0005172025452729692</v>
+        <v>0.0005162081180635519</v>
       </c>
       <c r="D12" t="n">
-        <v>-82.41114246798146</v>
+        <v>-81.05597443323992</v>
       </c>
       <c r="E12" t="n">
-        <v>6.184804087975107e-125</v>
+        <v>4.573293374413179e-81</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.04171670703042119</v>
+        <v>-0.04009413166342824</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03968930390882093</v>
+        <v>-0.03807062643604173</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07021172905790307</v>
+        <v>0.06906899251403346</v>
       </c>
     </row>
     <row r="13">
@@ -780,25 +780,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03573981854759804</v>
+        <v>-0.03411191719949838</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0005196554796739367</v>
+        <v>0.0005175488463456192</v>
       </c>
       <c r="D13" t="n">
-        <v>-72.92450507751541</v>
+        <v>-71.06039507537525</v>
       </c>
       <c r="E13" t="n">
-        <v>1.010338322616787e-99</v>
+        <v>2.83838454064687e-63</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.03675832780057446</v>
+        <v>-0.03512629760366207</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.03472130929462162</v>
+        <v>-0.03309753679533469</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07517491597992609</v>
+        <v>0.07403945436427008</v>
       </c>
     </row>
     <row r="14">
@@ -808,25 +808,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.02780709147519184</v>
+        <v>-0.0263775113465587</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0005098288184839115</v>
+        <v>0.0005072176106902052</v>
       </c>
       <c r="D14" t="n">
-        <v>-60.2636319641008</v>
+        <v>-58.29574215412674</v>
       </c>
       <c r="E14" t="n">
-        <v>1.034115542177344e-06</v>
+        <v>5.897312649491908e-06</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02880634075852241</v>
+        <v>-0.02737164282974968</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.02680784219186126</v>
+        <v>-0.02538337986336772</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0831076430523323</v>
+        <v>0.08177386021720975</v>
       </c>
     </row>
     <row r="15">
@@ -836,25 +836,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02481592442639032</v>
+        <v>-0.02348720183430164</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005000598253894392</v>
+        <v>0.0004964441694567999</v>
       </c>
       <c r="D15" t="n">
-        <v>-52.83188283137685</v>
+        <v>-52.15627991751979</v>
       </c>
       <c r="E15" t="n">
-        <v>1.320209750773341e-12</v>
+        <v>0.001464587928911537</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.02579602677606542</v>
+        <v>-0.0244602176899173</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.02383582207671523</v>
+        <v>-0.02251418597868598</v>
       </c>
       <c r="H15" t="n">
-        <v>0.08609881010113382</v>
+        <v>0.08466416972946682</v>
       </c>
     </row>
     <row r="16">
@@ -864,25 +864,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02377623611530444</v>
+        <v>-0.02247434279699745</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004898481686764925</v>
+        <v>0.0004876827920528572</v>
       </c>
       <c r="D16" t="n">
-        <v>-51.89898263171936</v>
+        <v>-51.23786716792348</v>
       </c>
       <c r="E16" t="n">
-        <v>4.628025730483905e-31</v>
+        <v>1.256045251847448e-07</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.02473632392678989</v>
+        <v>-0.02343018661270584</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02281614830381897</v>
+        <v>-0.02151849898128908</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0871384984122197</v>
+        <v>0.08567702876677101</v>
       </c>
     </row>
     <row r="17">
@@ -892,25 +892,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02264128695309985</v>
+        <v>-0.02124137594358983</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0004973486588568179</v>
+        <v>0.0004970905778672475</v>
       </c>
       <c r="D17" t="n">
-        <v>-48.50081106521007</v>
+        <v>-46.9875109835435</v>
       </c>
       <c r="E17" t="n">
-        <v>2.060226977987196e-34</v>
+        <v>4.000744382068244e-34</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.02361607549584004</v>
+        <v>-0.02221565874851614</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.02166649841035966</v>
+        <v>-0.02026709313866351</v>
       </c>
       <c r="H17" t="n">
-        <v>0.08827344757442429</v>
+        <v>0.08690999562017863</v>
       </c>
     </row>
     <row r="18">
@@ -920,25 +920,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.02123559719102644</v>
+        <v>-0.01995758893396115</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0005070189519464856</v>
+        <v>0.0005067053998500733</v>
       </c>
       <c r="D18" t="n">
-        <v>-44.64304003338101</v>
+        <v>-43.13047347257438</v>
       </c>
       <c r="E18" t="n">
-        <v>4.02497680786635e-22</v>
+        <v>1.638630668305514e-44</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.02222933921539893</v>
+        <v>-0.0209507164947511</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.02024185516665394</v>
+        <v>-0.0189644613731712</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0896791373364977</v>
+        <v>0.08819378262980732</v>
       </c>
     </row>
     <row r="19">
@@ -948,25 +948,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01695743989644027</v>
+        <v>-0.0159299047766</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0004986057321718066</v>
+        <v>0.0004989821818561247</v>
       </c>
       <c r="D19" t="n">
-        <v>-36.3527357653358</v>
+        <v>-35.03553256404954</v>
       </c>
       <c r="E19" t="n">
-        <v>4.313589997361879e-09</v>
+        <v>8.596574502067915e-20</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.01793469226692706</v>
+        <v>-0.01690789506212561</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01598018752595349</v>
+        <v>-0.01495191449107439</v>
       </c>
       <c r="H19" t="n">
-        <v>0.09395729463108388</v>
+        <v>0.09222146678716846</v>
       </c>
     </row>
     <row r="20">
@@ -976,25 +976,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01292675520100577</v>
+        <v>-0.01179519755579999</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0005067936721697522</v>
+        <v>0.0005069729215499503</v>
       </c>
       <c r="D20" t="n">
-        <v>-27.44132399370104</v>
+        <v>-25.98694377692039</v>
       </c>
       <c r="E20" t="n">
-        <v>0.03331117458718316</v>
+        <v>0.003122174390841637</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.01392005567560739</v>
+        <v>-0.01278884944041968</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.01193345472640414</v>
+        <v>-0.0108015456711803</v>
       </c>
       <c r="H20" t="n">
-        <v>0.09798797932651837</v>
+        <v>0.09635617400796848</v>
       </c>
     </row>
     <row r="21">
@@ -1004,25 +1004,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0106228459926085</v>
+        <v>-0.009512934572827524</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0005109120952230057</v>
+        <v>0.0005098649434684881</v>
       </c>
       <c r="D21" t="n">
-        <v>-21.70500613099954</v>
+        <v>-20.44414103959371</v>
       </c>
       <c r="E21" t="n">
-        <v>2.736152663501203e-09</v>
+        <v>0.00166534724368766</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.01162421844670445</v>
+        <v>-0.01051225471681762</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.009621473538512552</v>
+        <v>-0.008513614428837423</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1002918885349156</v>
+        <v>0.09863843699094094</v>
       </c>
     </row>
     <row r="22">
@@ -1032,25 +1032,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.007480541992183292</v>
+        <v>-0.006576628762419857</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0005031251240082664</v>
+        <v>0.0005025511497593985</v>
       </c>
       <c r="D22" t="n">
-        <v>-15.35562397914606</v>
+        <v>-14.31179018540216</v>
       </c>
       <c r="E22" t="n">
-        <v>0.00675990297886087</v>
+        <v>0.01974497186587624</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.008466652218249056</v>
+        <v>-0.007561614087302855</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.00649443176611753</v>
+        <v>-0.005591643437536856</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1034341925353408</v>
+        <v>0.1015747428013486</v>
       </c>
     </row>
     <row r="23">
@@ -1060,25 +1060,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005283580164107812</v>
+        <v>-0.004344259567449744</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004959307591132765</v>
+        <v>0.0004950222229673207</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.11601293339997</v>
+        <v>-9.902726970181995</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04416802019369261</v>
+        <v>0.006128689930818962</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006255589643376298</v>
+        <v>-0.005314488410788475</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.004311570684839328</v>
+        <v>-0.003374030724111014</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1056311543634163</v>
+        <v>0.1038071119963187</v>
       </c>
     </row>
     <row r="24">
@@ -1088,25 +1088,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005330799926753777</v>
+        <v>-0.004354891743403457</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0004946756683781576</v>
+        <v>0.0004957239266338627</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.40459731046179</v>
+        <v>-9.866046763980075</v>
       </c>
       <c r="E24" t="n">
-        <v>0.003420048106192842</v>
+        <v>0.0001119268718834365</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006300349461440948</v>
+        <v>-0.005326495896632311</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.004361250392066607</v>
+        <v>-0.003383287590174602</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1055839346007704</v>
+        <v>0.103796479820365</v>
       </c>
     </row>
     <row r="25">
@@ -1116,25 +1116,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.002337214783338214</v>
+        <v>-0.001732536594789761</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0004853615071836416</v>
+        <v>0.0004838437447820701</v>
       </c>
       <c r="D25" t="n">
-        <v>-4.97355043593499</v>
+        <v>-3.988452387375041</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01057585330447364</v>
+        <v>0.01444883489358647</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.003288508837386392</v>
+        <v>-0.002680855926632175</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.001385920729290036</v>
+        <v>-0.0007842172629473474</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1085775197441859</v>
+        <v>0.1064188349689787</v>
       </c>
     </row>
     <row r="26">
@@ -1144,25 +1144,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01984168955363529</v>
+        <v>0.009332180967595017</v>
       </c>
       <c r="C26" t="n">
-        <v>0.001521181626464528</v>
+        <v>0.001766720606321926</v>
       </c>
       <c r="D26" t="n">
-        <v>10.27355882357669</v>
+        <v>3.8425145779034</v>
       </c>
       <c r="E26" t="n">
-        <v>0.102301879030119</v>
+        <v>0.1159899148639259</v>
       </c>
       <c r="F26" t="n">
-        <v>0.01686021953100485</v>
+        <v>0.06982002816478294</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02282315957626573</v>
+        <v>0.01231316364171891</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1307564240811594</v>
+        <v>0.1174835525313635</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year13final.xlsx
+++ b/hourly datasets/cap_gen_year13final.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,7 +478,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>100%&gt;gen/cap&gt;95%</t>
+          <t>10%&gt;gen/cap&gt;5%</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -490,679 +490,563 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1081513715637685</v>
+        <v>0.1340068517692059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>105%&gt;gen/cap&gt;100%</t>
+          <t>100%&gt;gen/cap&gt;95%</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.003443587200751957</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.0007256656727760803</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.117892864933979</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05649826820455632</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.002021303964238181</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.004865870437265733</v>
-      </c>
+        <v>0.09215795502980216</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.1115949587645204</v>
+        <v>0.226164806799008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>110%&gt;gen/cap&gt;105%</t>
+          <t>105%&gt;gen/cap&gt;100%</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0008216781712412432</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.0009410904562421455</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.032599492705951</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.02543248610369423</v>
-      </c>
-      <c r="F4" t="n">
-        <v>-0.002666187467030926</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.001022831124548438</v>
-      </c>
+        <v>0.06889843069132204</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.1073296933925272</v>
+        <v>0.2029052824605279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>115%&gt;gen/cap&gt;110%</t>
+          <t>110%&gt;gen/cap&gt;105%</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005985576799996248</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.003629238004883483</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.221162925616692</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.1112325392698636</v>
-      </c>
-      <c r="F5" t="n">
-        <v>-0.001127621572567147</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.01309877517255964</v>
-      </c>
+        <v>0.03506440524895492</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1141369483637647</v>
+        <v>0.1690712570181608</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>120%&gt;gen/cap&gt;115%</t>
+          <t>115%&gt;gen/cap&gt;110%</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.00935433473977274</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.003339888515238433</v>
-      </c>
-      <c r="D6" t="n">
-        <v>3.640666896584873</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.119382056661647</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.002808250200541855</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.01590041927900363</v>
-      </c>
+        <v>0.05186796437783457</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1175057063035412</v>
+        <v>0.1858748161470404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>125%&gt;gen/cap&gt;120%</t>
+          <t>120%&gt;gen/cap&gt;115%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.008500198852210917</v>
+        <v>0.0409787913624375</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004313821062094309</v>
+        <v>0.001402794579708278</v>
       </c>
       <c r="D7" t="n">
-        <v>3.879579226923198</v>
+        <v>5.709593299162305</v>
       </c>
       <c r="E7" t="n">
-        <v>1.599642343436988</v>
+        <v>0.004753988107842275</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002060267225556201</v>
+        <v>0.03822868403767493</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01142713632889178</v>
+        <v>0.04372889868719976</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1166515704159794</v>
+        <v>0.1749856431316434</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>130%&gt;gen/cap&gt;125%</t>
+          <t>125%&gt;gen/cap&gt;120%</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007303178936666192</v>
+        <v>0.006458669990928157</v>
       </c>
       <c r="C8" t="n">
-        <v>0.008077526084819825</v>
+        <v>0.000290034873879409</v>
       </c>
       <c r="D8" t="n">
-        <v>3.76367918386245</v>
+        <v>1.909015406529603</v>
       </c>
       <c r="E8" t="n">
-        <v>0.04197480904354212</v>
+        <v>0.00553997320224069</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04276610119124324</v>
+        <v>0.005888713268207003</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0197388778699944</v>
+        <v>0.00702862671364925</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1154545505004347</v>
+        <v>0.140465521760134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>135%&gt;gen/cap&gt;130%</t>
+          <t>130%&gt;gen/cap&gt;125%</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00239300486158107</v>
+        <v>0.00480160047156199</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003644069052185047</v>
+        <v>0.0004439795526504435</v>
       </c>
       <c r="D9" t="n">
-        <v>1.15184079922951</v>
+        <v>1.536068604919209</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.005844101819434978</v>
+        <v>0.005202331750004947</v>
       </c>
       <c r="F9" t="n">
-        <v>0.007592098760838563</v>
+        <v>0.003929570543707811</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01025170463195939</v>
+        <v>0.005673630399416326</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1105443764253495</v>
+        <v>0.1388084522407679</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>20%&gt;gen/cap</t>
+          <t>135%&gt;gen/cap&gt;130%</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1081513715637685</v>
+        <v>0.004725911683180683</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0004891924047582525</v>
+        <v>0.0003145477616997416</v>
       </c>
       <c r="D10" t="n">
-        <v>-238.3459281824309</v>
+        <v>1.238672839291267</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.002454547320558274</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1091101741635475</v>
+        <v>0.004108767389363143</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1071925689639894</v>
+        <v>0.00534305597699836</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1387327634523866</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>25%&gt;gen/cap&gt;20%</t>
+          <t>15%&gt;gen/cap&gt;10%</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.05063352504493621</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0005296035887379542</v>
-      </c>
-      <c r="D11" t="n">
-        <v>-101.8953694280083</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.163431151683467e-272</v>
-      </c>
-      <c r="F11" t="n">
-        <v>-0.05167153239627991</v>
-      </c>
-      <c r="G11" t="n">
-        <v>-0.04959551769359249</v>
-      </c>
+        <v>0.02893625084825873</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.05751784651883225</v>
+        <v>0.1629431026174646</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>30%&gt;gen/cap&gt;25%</t>
+          <t>20%&gt;gen/cap&gt;15%</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03908237904973499</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.0005162081180635519</v>
-      </c>
-      <c r="D12" t="n">
-        <v>-81.05597443323992</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4.573293374413179e-81</v>
-      </c>
-      <c r="F12" t="n">
-        <v>-0.04009413166342824</v>
-      </c>
-      <c r="G12" t="n">
-        <v>-0.03807062643604173</v>
-      </c>
+        <v>0.05081018201302474</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.06906899251403346</v>
+        <v>0.1848170337822306</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>35%&gt;gen/cap&gt;30%</t>
+          <t>25%&gt;gen/cap&gt;20%</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03411191719949838</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.0005175488463456192</v>
-      </c>
-      <c r="D13" t="n">
-        <v>-71.06039507537525</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2.83838454064687e-63</v>
-      </c>
-      <c r="F13" t="n">
-        <v>-0.03512629760366207</v>
-      </c>
-      <c r="G13" t="n">
-        <v>-0.03309753679533469</v>
-      </c>
+        <v>0.06415260732035834</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.07403945436427008</v>
+        <v>0.1981594590895642</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>40%&gt;gen/cap&gt;35%</t>
+          <t>30%&gt;gen/cap&gt;25%</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0263775113465587</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.0005072176106902052</v>
-      </c>
-      <c r="D14" t="n">
-        <v>-58.29574215412674</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5.897312649491908e-06</v>
-      </c>
-      <c r="F14" t="n">
-        <v>-0.02737164282974968</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-0.02538337986336772</v>
-      </c>
+        <v>0.07515812462562309</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.08177386021720975</v>
+        <v>0.2091649763948289</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>45%&gt;gen/cap&gt;40%</t>
+          <t>35%&gt;gen/cap&gt;30%</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02348720183430164</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.0004964441694567999</v>
-      </c>
-      <c r="D15" t="n">
-        <v>-52.15627991751979</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.001464587928911537</v>
-      </c>
-      <c r="F15" t="n">
-        <v>-0.0244602176899173</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-0.02251418597868598</v>
-      </c>
+        <v>0.07858522441660983</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.08466416972946682</v>
+        <v>0.2125920761858157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>50%&gt;gen/cap&gt;45%</t>
+          <t>40%&gt;gen/cap&gt;35%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02247434279699745</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0004876827920528572</v>
-      </c>
-      <c r="D16" t="n">
-        <v>-51.23786716792348</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1.256045251847448e-07</v>
-      </c>
-      <c r="F16" t="n">
-        <v>-0.02343018661270584</v>
-      </c>
-      <c r="G16" t="n">
-        <v>-0.02151849898128908</v>
-      </c>
+        <v>0.08222630287950974</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.08567702876677101</v>
+        <v>0.2162331546487156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>55%&gt;gen/cap&gt;50%</t>
+          <t>45%&gt;gen/cap&gt;40%</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.02124137594358983</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0004970905778672475</v>
-      </c>
-      <c r="D17" t="n">
-        <v>-46.9875109835435</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4.000744382068244e-34</v>
-      </c>
-      <c r="F17" t="n">
-        <v>-0.02221565874851614</v>
-      </c>
-      <c r="G17" t="n">
-        <v>-0.02026709313866351</v>
-      </c>
+        <v>0.08516939678710707</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.08690999562017863</v>
+        <v>0.219176248556313</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>60%&gt;gen/cap&gt;55%</t>
+          <t>5%&gt;gen/cap</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.01995758893396115</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.0005067053998500733</v>
-      </c>
-      <c r="D18" t="n">
-        <v>-43.13047347257438</v>
-      </c>
-      <c r="E18" t="n">
-        <v>1.638630668305514e-44</v>
-      </c>
-      <c r="F18" t="n">
-        <v>-0.0209507164947511</v>
-      </c>
-      <c r="G18" t="n">
-        <v>-0.0189644613731712</v>
-      </c>
+        <v>-0.1340068517692059</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0.08819378262980732</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>65%&gt;gen/cap&gt;60%</t>
+          <t>50%&gt;gen/cap&gt;45%</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.0159299047766</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.0004989821818561247</v>
-      </c>
-      <c r="D19" t="n">
-        <v>-35.03553256404954</v>
-      </c>
-      <c r="E19" t="n">
-        <v>8.596574502067915e-20</v>
-      </c>
-      <c r="F19" t="n">
-        <v>-0.01690789506212561</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-0.01495191449107439</v>
-      </c>
+        <v>0.08924065697783592</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.09222146678716846</v>
+        <v>0.2232475087470418</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>70%&gt;gen/cap&gt;65%</t>
+          <t>55%&gt;gen/cap&gt;50%</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01179519755579999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.0005069729215499503</v>
-      </c>
-      <c r="D20" t="n">
-        <v>-25.98694377692039</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.003122174390841637</v>
-      </c>
-      <c r="F20" t="n">
-        <v>-0.01278884944041968</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-0.0108015456711803</v>
-      </c>
+        <v>0.09159795415180452</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.09635617400796848</v>
+        <v>0.2256048059210104</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>75%&gt;gen/cap&gt;70%</t>
+          <t>60%&gt;gen/cap&gt;55%</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.009512934572827524</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.0005098649434684881</v>
-      </c>
-      <c r="D21" t="n">
-        <v>-20.44414103959371</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.00166534724368766</v>
-      </c>
-      <c r="F21" t="n">
-        <v>-0.01051225471681762</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-0.008513614428837423</v>
-      </c>
+        <v>0.09573088921548305</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.09863843699094094</v>
+        <v>0.2297377409846889</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>80%&gt;gen/cap&gt;75%</t>
+          <t>65%&gt;gen/cap&gt;60%</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.006576628762419857</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.0005025511497593985</v>
-      </c>
-      <c r="D22" t="n">
-        <v>-14.31179018540216</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.01974497186587624</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.007561614087302855</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.005591643437536856</v>
-      </c>
+        <v>0.100011188024236</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.1015747428013486</v>
+        <v>0.2340180397934419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>85%&gt;gen/cap&gt;80%</t>
+          <t>70%&gt;gen/cap&gt;65%</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.004344259567449744</v>
+        <v>0.1045529269297779</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0004950222229673207</v>
+        <v>0.007035151506452276</v>
       </c>
       <c r="D23" t="n">
-        <v>-9.902726970181995</v>
+        <v>9501584227977.068</v>
       </c>
       <c r="E23" t="n">
-        <v>0.006128689930818962</v>
+        <v>0.04802697026305512</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.005314488410788475</v>
+        <v>0.09064376298145721</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.003374030724111014</v>
+        <v>0.1184620908780984</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1038071119963187</v>
+        <v>0.2385597786989838</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>90%&gt;gen/cap&gt;85%</t>
+          <t>75%&gt;gen/cap&gt;70%</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.004354891743403457</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.0004957239266338627</v>
-      </c>
-      <c r="D24" t="n">
-        <v>-9.866046763980075</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.0001119268718834365</v>
-      </c>
-      <c r="F24" t="n">
-        <v>-0.005326495896632311</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-0.003383287590174602</v>
-      </c>
+        <v>0.1061455411991573</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.103796479820365</v>
+        <v>0.2401523929683632</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>95%&gt;gen/cap&gt;90%</t>
+          <t>80%&gt;gen/cap&gt;75%</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.001732536594789761</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.0004838437447820701</v>
-      </c>
-      <c r="D25" t="n">
-        <v>-3.988452387375041</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.01444883489358647</v>
-      </c>
-      <c r="F25" t="n">
-        <v>-0.002680855926632175</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-0.0007842172629473474</v>
-      </c>
+        <v>0.1083807966056766</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0.1064188349689787</v>
+        <v>0.2423876483748825</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
+          <t>85%&gt;gen/cap&gt;80%</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.110051251133557</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0.2440581029027628</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>90%&gt;gen/cap&gt;85%</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.1118681982867844</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0.2458750500559903</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>95%&gt;gen/cap&gt;90%</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.1062383097686214</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.006251459806440304</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1403998900479.244</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08290444186977917</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.09395455920316415</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.1185220603340789</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.2402451615378273</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>gen/cap&gt;135%</t>
         </is>
       </c>
-      <c r="B26" t="n">
-        <v>0.009332180967595017</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.001766720606321926</v>
-      </c>
-      <c r="D26" t="n">
-        <v>3.8425145779034</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.1159899148639259</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0.06982002816478294</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0.01231316364171891</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0.1174835525313635</v>
+      <c r="B29" t="n">
+        <v>0.005112321052114403</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.0002409474194364242</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.281905861049097</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.002123488616867523</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.004639419096542138</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.005585223007686697</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.1391191728213203</v>
       </c>
     </row>
   </sheetData>

--- a/hourly datasets/cap_gen_year13final.xlsx
+++ b/hourly datasets/cap_gen_year13final.xlsx
@@ -490,7 +490,7 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.1340068517692059</v>
+        <v>0.09938754597967438</v>
       </c>
     </row>
     <row r="3">
@@ -500,7 +500,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09215795502980216</v>
+        <v>0.09544247632357654</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -508,7 +508,7 @@
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.226164806799008</v>
+        <v>0.1948300223032509</v>
       </c>
     </row>
     <row r="4">
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.06889843069132204</v>
+        <v>0.07433551145063542</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -526,7 +526,7 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.2029052824605279</v>
+        <v>0.1737230574303098</v>
       </c>
     </row>
     <row r="5">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.03506440524895492</v>
+        <v>0.04606018388745416</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -544,7 +544,7 @@
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.1690712570181608</v>
+        <v>0.1454477298671285</v>
       </c>
     </row>
     <row r="6">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05186796437783457</v>
+        <v>0.06073887638649635</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -562,7 +562,7 @@
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0.1858748161470404</v>
+        <v>0.1601264223661707</v>
       </c>
     </row>
     <row r="7">
@@ -572,25 +572,15 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0409787913624375</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.001402794579708278</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.709593299162305</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.004753988107842275</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.03822868403767493</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.04372889868719976</v>
-      </c>
+        <v>0.05558531632287125</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.1749856431316434</v>
+        <v>0.1549728623025456</v>
       </c>
     </row>
     <row r="8">
@@ -600,25 +590,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.006458669990928157</v>
+        <v>0.03768428929135112</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000290034873879409</v>
+        <v>0.002056094966887085</v>
       </c>
       <c r="D8" t="n">
-        <v>1.909015406529603</v>
+        <v>4.610602075245989</v>
       </c>
       <c r="E8" t="n">
-        <v>0.00553997320224069</v>
+        <v>0.0145225967495337</v>
       </c>
       <c r="F8" t="n">
-        <v>0.005888713268207003</v>
+        <v>0.03365153501609233</v>
       </c>
       <c r="G8" t="n">
-        <v>0.00702862671364925</v>
+        <v>0.04171704356661073</v>
       </c>
       <c r="H8" t="n">
-        <v>0.140465521760134</v>
+        <v>0.1370718352710255</v>
       </c>
     </row>
     <row r="9">
@@ -628,25 +618,15 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.00480160047156199</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0004439795526504435</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.536068604919209</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.005202331750004947</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.003929570543707811</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.005673630399416326</v>
-      </c>
+        <v>0.03702959467894879</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.1388084522407679</v>
+        <v>0.1364171406586231</v>
       </c>
     </row>
     <row r="10">
@@ -656,25 +636,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.004725911683180683</v>
+        <v>0.03750736443914262</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003145477616997416</v>
+        <v>0.002441190054921404</v>
       </c>
       <c r="D10" t="n">
-        <v>1.238672839291267</v>
+        <v>4.55487105918922</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002454547320558274</v>
+        <v>0.00892760710090874</v>
       </c>
       <c r="F10" t="n">
-        <v>0.004108767389363143</v>
+        <v>0.03271774425642111</v>
       </c>
       <c r="G10" t="n">
-        <v>0.00534305597699836</v>
+        <v>0.04229698462186376</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1387327634523866</v>
+        <v>0.136894910418817</v>
       </c>
     </row>
     <row r="11">
@@ -684,7 +664,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02893625084825873</v>
+        <v>0.0299333419793639</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -692,7 +672,7 @@
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0.1629431026174646</v>
+        <v>0.1293208879590383</v>
       </c>
     </row>
     <row r="12">
@@ -702,7 +682,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05081018201302474</v>
+        <v>0.05235207103284203</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -710,7 +690,7 @@
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.1848170337822306</v>
+        <v>0.1517396170125164</v>
       </c>
     </row>
     <row r="13">
@@ -720,7 +700,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06415260732035834</v>
+        <v>0.06459953424568558</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -728,7 +708,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.1981594590895642</v>
+        <v>0.16398708022536</v>
       </c>
     </row>
     <row r="14">
@@ -738,7 +718,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.07515812462562309</v>
+        <v>0.07541470999723525</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -746,7 +726,7 @@
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0.2091649763948289</v>
+        <v>0.1748022559769096</v>
       </c>
     </row>
     <row r="15">
@@ -756,7 +736,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.07858522441660983</v>
+        <v>0.08077247944632321</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -764,7 +744,7 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0.2125920761858157</v>
+        <v>0.1801600254259976</v>
       </c>
     </row>
     <row r="16">
@@ -774,7 +754,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.08222630287950974</v>
+        <v>0.08348292184851812</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -782,7 +762,7 @@
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0.2162331546487156</v>
+        <v>0.1828704678281925</v>
       </c>
     </row>
     <row r="17">
@@ -792,7 +772,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.08516939678710707</v>
+        <v>0.08625249812131089</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -800,7 +780,7 @@
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.219176248556313</v>
+        <v>0.1856400441009853</v>
       </c>
     </row>
     <row r="18">
@@ -810,13 +790,23 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.1340068517692059</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+        <v>-0.09938754597967438</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.008653689853673477</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-18.86719455148055</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.0246845553515376</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-0.1164063896228987</v>
+      </c>
+      <c r="G18" t="n">
+        <v>-0.08236870233644973</v>
+      </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
@@ -828,7 +818,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.08924065697783592</v>
+        <v>0.09066174891765244</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -836,7 +826,7 @@
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2232475087470418</v>
+        <v>0.1900492948973268</v>
       </c>
     </row>
     <row r="20">
@@ -846,7 +836,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.09159795415180452</v>
+        <v>0.09232087629706269</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -854,7 +844,7 @@
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0.2256048059210104</v>
+        <v>0.1917084222767371</v>
       </c>
     </row>
     <row r="21">
@@ -864,7 +854,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.09573088921548305</v>
+        <v>0.09727129600694094</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -872,7 +862,7 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0.2297377409846889</v>
+        <v>0.1966588419866153</v>
       </c>
     </row>
     <row r="22">
@@ -882,7 +872,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.100011188024236</v>
+        <v>0.1000947009958603</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -890,7 +880,7 @@
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.2340180397934419</v>
+        <v>0.1994822469755347</v>
       </c>
     </row>
     <row r="23">
@@ -900,25 +890,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.1045529269297779</v>
+        <v>0.103999561416143</v>
       </c>
       <c r="C23" t="n">
-        <v>0.007035151506452276</v>
+        <v>0.007785622198110591</v>
       </c>
       <c r="D23" t="n">
-        <v>9501584227977.068</v>
+        <v>-323436960025.2491</v>
       </c>
       <c r="E23" t="n">
-        <v>0.04802697026305512</v>
+        <v>0.04744812292787406</v>
       </c>
       <c r="F23" t="n">
-        <v>0.09064376298145721</v>
+        <v>0.08869425653373132</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1184620908780984</v>
+        <v>0.1193048662985546</v>
       </c>
       <c r="H23" t="n">
-        <v>0.2385597786989838</v>
+        <v>0.2033871073958173</v>
       </c>
     </row>
     <row r="24">
@@ -928,7 +918,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.1061455411991573</v>
+        <v>0.1068487404761665</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -936,7 +926,7 @@
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.2401523929683632</v>
+        <v>0.2062362864558409</v>
       </c>
     </row>
     <row r="25">
@@ -946,15 +936,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.1083807966056766</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+        <v>0.1091724292302566</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007745187477226081</v>
+      </c>
+      <c r="D25" t="n">
+        <v>25.64992793640603</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.04992955927607987</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.09394820866560222</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.1243966497949112</v>
+      </c>
       <c r="H25" t="n">
-        <v>0.2423876483748825</v>
+        <v>0.2085599752099309</v>
       </c>
     </row>
     <row r="26">
@@ -964,15 +964,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.110051251133557</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+        <v>0.1093807751548355</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007758347567464143</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-111759430900.8102</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05997937961130436</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.09413546175669202</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.1246260885529791</v>
+      </c>
       <c r="H26" t="n">
-        <v>0.2440581029027628</v>
+        <v>0.2087683211345099</v>
       </c>
     </row>
     <row r="27">
@@ -982,7 +992,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1118681982867844</v>
+        <v>0.1129574129246157</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -990,7 +1000,7 @@
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0.2458750500559903</v>
+        <v>0.2123449589042901</v>
       </c>
     </row>
     <row r="28">
@@ -1000,25 +1010,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1062383097686214</v>
+        <v>0.1076206129339424</v>
       </c>
       <c r="C28" t="n">
-        <v>0.006251459806440304</v>
+        <v>0.007314701122807652</v>
       </c>
       <c r="D28" t="n">
-        <v>1403998900479.244</v>
+        <v>22.52232618684381</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08290444186977917</v>
+        <v>0.08773815096072336</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09395455920316415</v>
+        <v>0.09325684945791586</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1185220603340789</v>
+        <v>0.1219843764099697</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2402451615378273</v>
+        <v>0.2070081589136168</v>
       </c>
     </row>
     <row r="29">
@@ -1028,25 +1038,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.005112321052114403</v>
+        <v>0.04175810814375928</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0002409474194364242</v>
+        <v>0.002461833108853095</v>
       </c>
       <c r="D29" t="n">
-        <v>1.281905861049097</v>
+        <v>4.917267414069542</v>
       </c>
       <c r="E29" t="n">
-        <v>0.002123488616867523</v>
+        <v>0.0105151434110451</v>
       </c>
       <c r="F29" t="n">
-        <v>0.004639419096542138</v>
+        <v>0.03692382100225468</v>
       </c>
       <c r="G29" t="n">
-        <v>0.005585223007686697</v>
+        <v>0.04659239528526291</v>
       </c>
       <c r="H29" t="n">
-        <v>0.1391191728213203</v>
+        <v>0.1411456541234337</v>
       </c>
     </row>
   </sheetData>
